--- a/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/ValueSet-id-provider-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
